--- a/pred_ohlcv/54_21/2020-01-16 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 FX ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>91980.47359444099</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>121081.017694441</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>148281.017694441</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>200267.865194441</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>201870.930394441</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>204182.930394441</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>204182.930394441</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>196255.573094441</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>196255.573094441</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>192728.733294441</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>189436.886094441</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>189436.886094441</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-187773.585905559</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-175459.119105559</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-175459.119105559</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-195459.119105559</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-215459.119105559</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-215449.119105559</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-215449.119105559</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-130493.407705559</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-130133.407705559</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-130133.407705559</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-130133.407705559</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-130133.407705559</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-101624.9366688387</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-55037.3848739793</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-25781.7248739793</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>73686.52309571323</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>73686.52309571323</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-14025.85860428677</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>216677.8357957132</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>216677.8357957132</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>207874.3949957132</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>207874.3949957132</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>207874.3949957132</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>204930.2898957132</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>150756.8440957133</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>113922.0225181326</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 FX ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>91980.47359444099</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>121081.017694441</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>148281.017694441</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>200267.865194441</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>201870.930394441</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>204182.930394441</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>204182.930394441</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>196255.573094441</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>196255.573094441</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>192728.733294441</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>189436.886094441</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>189436.886094441</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-215449.119105559</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-186516.062005559</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-101624.9366688387</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-180768.5486688387</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-180768.5486688387</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-146414.4501739793</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-144324.6858739793</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-99559.9954739793</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-81153.5674739793</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-79398.21217397931</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-55037.3848739793</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-25781.7248739793</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>73686.52309571323</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>73686.52309571323</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-14025.85860428677</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>119085.9132957132</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>136330.8036957132</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>136330.8036957132</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>216677.8357957132</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>216677.8357957132</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>207874.3949957132</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>207874.3949957132</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>207874.3949957132</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>207874.3949957132</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>204930.2898957132</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>113922.0225181326</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
